--- a/data/fractionation/230208 Batch 136 Summary Water Yr.xlsx
+++ b/data/fractionation/230208 Batch 136 Summary Water Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D9A4A-1D15-45D5-8D2C-84BAC23B7FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27304A07-18F4-4EED-A420-3DD6A5A6C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="215">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -770,9 +770,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Isotope</t>
   </si>
   <si>
@@ -816,7 +813,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -931,15 +928,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,11 +970,6 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1152,12 +1137,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,13 +1376,13 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="8" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,18 +1394,8 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A5401193-31B9-47AE-B2F2-84F13525C782}"/>
   </cellStyles>
@@ -5220,75 +5194,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7657691190000016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7690473990000015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7659603520000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7615893120000017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7561255120000023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7495689520000024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7430123920000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7375485920000013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7309920320000032</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7244354720000015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7189716720000021</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7124151120000022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7080440720000034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7014875120000017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6960237120000023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6894671520000024</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6840033520000031</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6774467920000014</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.659061105000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5869389450000018</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4164683850000017</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2022874250000033</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,7 +5324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6933,132 +6844,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$5:$AD$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7690473990000015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7659603520000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7615893120000017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7561255120000023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7495689520000024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7430123920000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7375485920000013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7309920320000032</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7244354720000015</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7189716720000021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7124151120000022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7080440720000034</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7014875120000017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6960237120000023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6894671520000024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6840033520000031</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6774467920000014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.659061105000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5869389450000018</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$5:$AE$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.6317905810946828E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1636928587529632E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4386456596544264E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.3699863219191574E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8278765843871482E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11858087810137881</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40231831323639478</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9221259369639874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.732429204379685</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2732451811946646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.13416969049131</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7855913060466673</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2255115543625315</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3790283529864669</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74246649100722306</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36829714224825572</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25166203062870895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32859040326873551</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.26314629961149311</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7108,7 +6904,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7174,7 +6970,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -10016,10 +9812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10040,7 +9836,7 @@
         <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10048,7 +9844,7 @@
         <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10068,16 +9864,16 @@
         <v>199</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>205</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>206</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>196</v>
@@ -10102,7 +9898,7 @@
         <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="63">
         <f>TubeLoading!J29</f>
@@ -10135,7 +9931,7 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="63">
         <f>TubeLoading!J31</f>
@@ -10168,7 +9964,7 @@
         <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="63">
         <f>TubeLoading!J32</f>
@@ -10201,7 +9997,7 @@
         <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="63">
         <f>TubeLoading!J33</f>
@@ -10234,7 +10030,7 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G9" s="63">
         <f>TubeLoading!J34</f>
@@ -10267,7 +10063,7 @@
         <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="63">
         <f>TubeLoading!J35</f>
@@ -10300,7 +10096,7 @@
         <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="63">
         <f>TubeLoading!J36</f>
@@ -10333,7 +10129,7 @@
         <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="63">
         <f>TubeLoading!J37</f>
@@ -10366,7 +10162,7 @@
         <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="63">
         <f>TubeLoading!J38</f>
@@ -10382,12 +10178,12 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="63">
-        <f>TubeLoading!F39</f>
-        <v>1502</v>
+        <f>TubeLoading!F40</f>
+        <v>1777</v>
       </c>
       <c r="B14" s="63" t="str">
-        <f>TubeLoading!A39</f>
-        <v>Tube K</v>
+        <f>TubeLoading!A40</f>
+        <v>Tube L</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>201</v>
@@ -10399,59 +10195,26 @@
         <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="63">
-        <f>TubeLoading!J39</f>
-        <v>4000</v>
+        <f>TubeLoading!J40</f>
+        <v>4000.0000000000005</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>43.138336595495552</v>
-      </c>
-      <c r="I14" s="65">
+        <v>58.194511432569072</v>
+      </c>
+      <c r="I14" s="50">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="63">
-        <f>TubeLoading!F40</f>
-        <v>1777</v>
-      </c>
-      <c r="B15" s="63" t="str">
-        <f>TubeLoading!A40</f>
-        <v>Tube L</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="64">
-        <v>44965</v>
-      </c>
-      <c r="E15">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="63">
-        <f>TubeLoading!J40</f>
-        <v>4000.0000000000005</v>
-      </c>
-      <c r="H15" s="50">
-        <f>Summary!AH26</f>
-        <v>58.194511432569072</v>
-      </c>
-      <c r="I15" s="50">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>207</v>
+      <c r="J14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -18709,10 +18472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
@@ -18727,7 +18490,7 @@
     <col min="9" max="16384" width="10.90625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13" thickTop="1">
+    <row r="1" spans="1:31" ht="13" thickTop="1">
       <c r="A1" s="59" t="s">
         <v>185</v>
       </c>
@@ -18840,49 +18603,37 @@
         <v>2378-conc</v>
       </c>
       <c r="AC1" s="102">
-        <f>TubeLoading!F39</f>
-        <v>1502</v>
-      </c>
-      <c r="AD1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
-        <v>1502-density</v>
-      </c>
-      <c r="AE1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
-        <v>1502-conc</v>
-      </c>
-      <c r="AF1" s="102">
         <f>TubeLoading!F40</f>
         <v>1777</v>
       </c>
-      <c r="AG1" s="103" t="str">
+      <c r="AD1" s="103" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
         <v>1777-density</v>
       </c>
-      <c r="AH1" s="103" t="str">
+      <c r="AE1" s="103" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
         <v>1777-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.5">
+    <row r="2" spans="1:31">
       <c r="A2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
       <c r="K2" s="115" t="s">
         <v>173</v>
       </c>
@@ -18913,18 +18664,13 @@
       </c>
       <c r="AA2" s="116"/>
       <c r="AB2" s="117"/>
-      <c r="AC2" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115" t="s">
+      <c r="AC2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="117"/>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="117"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="59" t="s">
         <v>168</v>
       </c>
@@ -19018,17 +18764,8 @@
       <c r="AE3" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="AF3" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG3" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH3" s="83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -19132,29 +18869,18 @@
         <v>-3.1275454720268901E-2</v>
       </c>
       <c r="AC4" s="66" t="str">
-        <f>'Tube K'!G2</f>
-        <v>D6</v>
-      </c>
-      <c r="AD4" s="67">
-        <f>'Tube K'!F2</f>
-        <v>1.7657691190000016</v>
-      </c>
-      <c r="AE4" s="68">
-        <v>-4.2588819703764007E-6</v>
-      </c>
-      <c r="AF4" s="66" t="str">
         <f>'Tube L'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AD4" s="67">
         <f>'Tube L'!F2</f>
         <v>1.7683371050000005</v>
       </c>
-      <c r="AH4" s="68">
+      <c r="AE4" s="68">
         <v>-2.5054170715139806E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:31">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -19258,29 +18984,18 @@
         <v>-2.7863015321701625E-2</v>
       </c>
       <c r="AC5" s="69" t="str">
-        <f>'Tube K'!G3</f>
-        <v>C6</v>
-      </c>
-      <c r="AD5" s="70">
-        <f>'Tube K'!F3</f>
-        <v>1.7690473990000015</v>
-      </c>
-      <c r="AE5" s="71">
-        <v>-1.6317905810946828E-2</v>
-      </c>
-      <c r="AF5" s="69" t="str">
         <f>'Tube L'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AD5" s="70">
         <f>'Tube L'!F3</f>
         <v>1.7683371050000005</v>
       </c>
-      <c r="AH5" s="71">
+      <c r="AE5" s="71">
         <v>-1.2160318174489074E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:31">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -19384,29 +19099,18 @@
         <v>-3.5891578178587312E-2</v>
       </c>
       <c r="AC6" s="69" t="str">
-        <f>'Tube K'!G4</f>
-        <v>B6</v>
-      </c>
-      <c r="AD6" s="70">
-        <f>'Tube K'!F4</f>
-        <v>1.7659603520000005</v>
-      </c>
-      <c r="AE6" s="71">
-        <v>-1.1636928587529632E-2</v>
-      </c>
-      <c r="AF6" s="69" t="str">
         <f>'Tube L'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AG6" s="70">
+      <c r="AD6" s="70">
         <f>'Tube L'!F4</f>
         <v>1.7617805450000024</v>
       </c>
-      <c r="AH6" s="71">
+      <c r="AE6" s="71">
         <v>-1.6851205668305558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:31">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -19510,29 +19214,18 @@
         <v>-3.4863309180132175E-2</v>
       </c>
       <c r="AC7" s="69" t="str">
-        <f>'Tube K'!G5</f>
-        <v>A6</v>
-      </c>
-      <c r="AD7" s="70">
-        <f>'Tube K'!F5</f>
-        <v>1.7615893120000017</v>
-      </c>
-      <c r="AE7" s="71">
-        <v>7.4386456596544264E-3</v>
-      </c>
-      <c r="AF7" s="69" t="str">
         <f>'Tube L'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AG7" s="70">
+      <c r="AD7" s="70">
         <f>'Tube L'!F5</f>
         <v>1.7541312250000018</v>
       </c>
-      <c r="AH7" s="71">
+      <c r="AE7" s="71">
         <v>-5.9861067372386709E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:31">
       <c r="A8" s="53">
         <v>5</v>
       </c>
@@ -19636,29 +19329,18 @@
         <v>1.8082040879146773E-2</v>
       </c>
       <c r="AC8" s="69" t="str">
-        <f>'Tube K'!G6</f>
-        <v>A7</v>
-      </c>
-      <c r="AD8" s="70">
-        <f>'Tube K'!F6</f>
-        <v>1.7561255120000023</v>
-      </c>
-      <c r="AE8" s="71">
-        <v>-7.3699863219191574E-3</v>
-      </c>
-      <c r="AF8" s="69" t="str">
         <f>'Tube L'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AG8" s="70">
+      <c r="AD8" s="70">
         <f>'Tube L'!F6</f>
         <v>1.7475746650000001</v>
       </c>
-      <c r="AH8" s="71">
+      <c r="AE8" s="71">
         <v>1.0330630654925227E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:31">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -19762,29 +19444,18 @@
         <v>-8.7901572792835076E-3</v>
       </c>
       <c r="AC9" s="69" t="str">
-        <f>'Tube K'!G7</f>
-        <v>B7</v>
-      </c>
-      <c r="AD9" s="70">
-        <f>'Tube K'!F7</f>
-        <v>1.7495689520000024</v>
-      </c>
-      <c r="AE9" s="71">
-        <v>8.8278765843871482E-3</v>
-      </c>
-      <c r="AF9" s="69" t="str">
         <f>'Tube L'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AG9" s="70">
+      <c r="AD9" s="70">
         <f>'Tube L'!F7</f>
         <v>1.741018105000002</v>
       </c>
-      <c r="AH9" s="71">
+      <c r="AE9" s="71">
         <v>4.3940715201893153E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:31">
       <c r="A10" s="53">
         <v>7</v>
       </c>
@@ -19888,29 +19559,18 @@
         <v>2.5630658248917342E-2</v>
       </c>
       <c r="AC10" s="69" t="str">
-        <f>'Tube K'!G8</f>
-        <v>C7</v>
-      </c>
-      <c r="AD10" s="70">
-        <f>'Tube K'!F8</f>
-        <v>1.7430123920000007</v>
-      </c>
-      <c r="AE10" s="71">
-        <v>0.11858087810137881</v>
-      </c>
-      <c r="AF10" s="69" t="str">
         <f>'Tube L'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AG10" s="70">
+      <c r="AD10" s="70">
         <f>'Tube L'!F8</f>
         <v>1.7366470650000014</v>
       </c>
-      <c r="AH10" s="72">
+      <c r="AE10" s="72">
         <v>0.28126228938115733</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:31">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -20014,29 +19674,18 @@
         <v>0.13690622359866234</v>
       </c>
       <c r="AC11" s="69" t="str">
-        <f>'Tube K'!G9</f>
-        <v>D7</v>
-      </c>
-      <c r="AD11" s="70">
-        <f>'Tube K'!F9</f>
-        <v>1.7375485920000013</v>
-      </c>
-      <c r="AE11" s="71">
-        <v>0.40231831323639478</v>
-      </c>
-      <c r="AF11" s="69" t="str">
         <f>'Tube L'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AG11" s="70">
+      <c r="AD11" s="70">
         <f>'Tube L'!F9</f>
         <v>1.7311832650000021</v>
       </c>
-      <c r="AH11" s="72">
+      <c r="AE11" s="72">
         <v>3.1893162158069308</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:31">
       <c r="A12" s="53">
         <v>9</v>
       </c>
@@ -20140,29 +19789,18 @@
         <v>1.1387602520453319</v>
       </c>
       <c r="AC12" s="69" t="str">
-        <f>'Tube K'!G10</f>
-        <v>E7</v>
-      </c>
-      <c r="AD12" s="70">
-        <f>'Tube K'!F10</f>
-        <v>1.7309920320000032</v>
-      </c>
-      <c r="AE12" s="71">
-        <v>1.9221259369639874</v>
-      </c>
-      <c r="AF12" s="69" t="str">
         <f>'Tube L'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AG12" s="70">
+      <c r="AD12" s="70">
         <f>'Tube L'!F10</f>
         <v>1.7246267050000004</v>
       </c>
-      <c r="AH12" s="72">
+      <c r="AE12" s="72">
         <v>14.351197218176653</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:31">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -20266,29 +19904,18 @@
         <v>8.6647823780703686</v>
       </c>
       <c r="AC13" s="69" t="str">
-        <f>'Tube K'!G11</f>
-        <v>F7</v>
-      </c>
-      <c r="AD13" s="70">
-        <f>'Tube K'!F11</f>
-        <v>1.7244354720000015</v>
-      </c>
-      <c r="AE13" s="71">
-        <v>10.732429204379685</v>
-      </c>
-      <c r="AF13" s="69" t="str">
         <f>'Tube L'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AG13" s="70">
+      <c r="AD13" s="70">
         <f>'Tube L'!F11</f>
         <v>1.7180701450000022</v>
       </c>
-      <c r="AH13" s="71">
+      <c r="AE13" s="71">
         <v>15.835197691633388</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:31">
       <c r="A14" s="53">
         <v>11</v>
       </c>
@@ -20392,29 +20019,18 @@
         <v>15.016715806462473</v>
       </c>
       <c r="AC14" s="69" t="str">
-        <f>'Tube K'!G12</f>
-        <v>G7</v>
-      </c>
-      <c r="AD14" s="70">
-        <f>'Tube K'!F12</f>
-        <v>1.7189716720000021</v>
-      </c>
-      <c r="AE14" s="71">
-        <v>1.2732451811946646</v>
-      </c>
-      <c r="AF14" s="69" t="str">
         <f>'Tube L'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AG14" s="70">
+      <c r="AD14" s="70">
         <f>'Tube L'!F12</f>
         <v>1.7115135850000023</v>
       </c>
-      <c r="AH14" s="73">
+      <c r="AE14" s="73">
         <v>12.738767619357882</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:31">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -20518,29 +20134,18 @@
         <v>12.688466346802121</v>
       </c>
       <c r="AC15" s="69" t="str">
-        <f>'Tube K'!G13</f>
-        <v>H7</v>
-      </c>
-      <c r="AD15" s="70">
-        <f>'Tube K'!F13</f>
-        <v>1.7124151120000022</v>
-      </c>
-      <c r="AE15" s="71">
-        <v>13.13416969049131</v>
-      </c>
-      <c r="AF15" s="69" t="str">
         <f>'Tube L'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AG15" s="70">
+      <c r="AD15" s="70">
         <f>'Tube L'!F13</f>
         <v>1.7071425450000035</v>
       </c>
-      <c r="AH15" s="73">
+      <c r="AE15" s="73">
         <v>6.4629366896276439</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:31">
       <c r="A16" s="53">
         <v>13</v>
       </c>
@@ -20644,29 +20249,18 @@
         <v>7.0809153362556003</v>
       </c>
       <c r="AC16" s="69" t="str">
-        <f>'Tube K'!G14</f>
-        <v>H8</v>
-      </c>
-      <c r="AD16" s="70">
-        <f>'Tube K'!F14</f>
-        <v>1.7080440720000034</v>
-      </c>
-      <c r="AE16" s="71">
-        <v>8.7855913060466673</v>
-      </c>
-      <c r="AF16" s="69" t="str">
         <f>'Tube L'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AG16" s="70">
+      <c r="AD16" s="70">
         <f>'Tube L'!F14</f>
         <v>1.7005859850000018</v>
       </c>
-      <c r="AH16" s="73">
+      <c r="AE16" s="73">
         <v>2.2046622407655039</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:31">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -20770,29 +20364,18 @@
         <v>2.9041041161458581</v>
       </c>
       <c r="AC17" s="69" t="str">
-        <f>'Tube K'!G15</f>
-        <v>G8</v>
-      </c>
-      <c r="AD17" s="70">
-        <f>'Tube K'!F15</f>
-        <v>1.7014875120000017</v>
-      </c>
-      <c r="AE17" s="71">
-        <v>3.2255115543625315</v>
-      </c>
-      <c r="AF17" s="69" t="str">
         <f>'Tube L'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AG17" s="70">
+      <c r="AD17" s="70">
         <f>'Tube L'!F15</f>
         <v>1.6951221850000024</v>
       </c>
-      <c r="AH17" s="71">
+      <c r="AE17" s="71">
         <v>1.2105832052994503</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:31">
       <c r="A18" s="53">
         <v>15</v>
       </c>
@@ -20896,29 +20479,18 @@
         <v>1.2997656998628737</v>
       </c>
       <c r="AC18" s="69" t="str">
-        <f>'Tube K'!G16</f>
-        <v>F8</v>
-      </c>
-      <c r="AD18" s="70">
-        <f>'Tube K'!F16</f>
-        <v>1.6960237120000023</v>
-      </c>
-      <c r="AE18" s="71">
-        <v>1.3790283529864669</v>
-      </c>
-      <c r="AF18" s="69" t="str">
         <f>'Tube L'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AG18" s="70">
+      <c r="AD18" s="70">
         <f>'Tube L'!F16</f>
         <v>1.6896583850000031</v>
       </c>
-      <c r="AH18" s="71">
+      <c r="AE18" s="71">
         <v>0.67078570005575899</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:31">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -21022,29 +20594,18 @@
         <v>0.70801543668704481</v>
       </c>
       <c r="AC19" s="69" t="str">
-        <f>'Tube K'!G17</f>
-        <v>E8</v>
-      </c>
-      <c r="AD19" s="70">
-        <f>'Tube K'!F17</f>
-        <v>1.6894671520000024</v>
-      </c>
-      <c r="AE19" s="71">
-        <v>0.74246649100722306</v>
-      </c>
-      <c r="AF19" s="69" t="str">
         <f>'Tube L'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AG19" s="70">
+      <c r="AD19" s="70">
         <f>'Tube L'!F17</f>
         <v>1.6843858180000026</v>
       </c>
-      <c r="AH19" s="71">
+      <c r="AE19" s="71">
         <v>0.33732588734553975</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:31">
       <c r="A20" s="53">
         <v>17</v>
       </c>
@@ -21148,29 +20709,18 @@
         <v>0.40445079755638069</v>
       </c>
       <c r="AC20" s="69" t="str">
-        <f>'Tube K'!G18</f>
-        <v>D8</v>
-      </c>
-      <c r="AD20" s="70">
-        <f>'Tube K'!F18</f>
-        <v>1.6840033520000031</v>
-      </c>
-      <c r="AE20" s="71">
-        <v>0.36829714224825572</v>
-      </c>
-      <c r="AF20" s="69" t="str">
         <f>'Tube L'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AG20" s="70">
+      <c r="AD20" s="70">
         <f>'Tube L'!F18</f>
         <v>1.6778292580000009</v>
       </c>
-      <c r="AH20" s="71">
+      <c r="AE20" s="71">
         <v>0.2315521617362194</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:31">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -21274,29 +20824,18 @@
         <v>0.19766846550680839</v>
       </c>
       <c r="AC21" s="69" t="str">
-        <f>'Tube K'!G19</f>
-        <v>C8</v>
-      </c>
-      <c r="AD21" s="70">
-        <f>'Tube K'!F19</f>
-        <v>1.6774467920000014</v>
-      </c>
-      <c r="AE21" s="71">
-        <v>0.25166203062870895</v>
-      </c>
-      <c r="AF21" s="69" t="str">
         <f>'Tube L'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AG21" s="70">
+      <c r="AD21" s="70">
         <f>'Tube L'!F19</f>
         <v>1.6636233780000023</v>
       </c>
-      <c r="AH21" s="71">
+      <c r="AE21" s="71">
         <v>0.2769888766514676</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:31">
       <c r="A22" s="53">
         <v>19</v>
       </c>
@@ -21400,29 +20939,18 @@
         <v>0.16641930179141731</v>
       </c>
       <c r="AC22" s="69" t="str">
-        <f>'Tube K'!G20</f>
-        <v>B8</v>
-      </c>
-      <c r="AD22" s="70">
-        <f>'Tube K'!F20</f>
-        <v>1.659061105000001</v>
-      </c>
-      <c r="AE22" s="71">
-        <v>0.32859040326873551</v>
-      </c>
-      <c r="AF22" s="69" t="str">
         <f>'Tube L'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AG22" s="70">
+      <c r="AD22" s="70">
         <f>'Tube L'!F20</f>
         <v>1.6024288180000017</v>
       </c>
-      <c r="AH22" s="71">
+      <c r="AE22" s="71">
         <v>0.21163094350487141</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:31">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -21526,29 +21054,18 @@
         <v>0.14020984355062352</v>
       </c>
       <c r="AC23" s="69" t="str">
-        <f>'Tube K'!G21</f>
-        <v>A8</v>
-      </c>
-      <c r="AD23" s="70">
-        <f>'Tube K'!F21</f>
-        <v>1.5869389450000018</v>
-      </c>
-      <c r="AE23" s="71">
-        <v>0.26314629961149311</v>
-      </c>
-      <c r="AF23" s="69" t="str">
         <f>'Tube L'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AG23" s="70">
+      <c r="AD23" s="70">
         <f>'Tube L'!F21</f>
         <v>1.4396075780000004</v>
       </c>
-      <c r="AH23" s="71">
+      <c r="AE23" s="71">
         <v>0.11700548943632783</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:31">
       <c r="A24" s="53">
         <v>21</v>
       </c>
@@ -21652,29 +21169,18 @@
         <v>9.7474095572049058E-2</v>
       </c>
       <c r="AC24" s="66" t="str">
-        <f>'Tube K'!G22</f>
-        <v>A9</v>
-      </c>
-      <c r="AD24" s="67">
-        <f>'Tube K'!F22</f>
-        <v>1.4164683850000017</v>
-      </c>
-      <c r="AE24" s="68">
-        <v>0.16718316760135221</v>
-      </c>
-      <c r="AF24" s="66" t="str">
         <f>'Tube L'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AG24" s="67">
+      <c r="AD24" s="67">
         <f>'Tube L'!F22</f>
         <v>1.2134062580000009</v>
       </c>
-      <c r="AH24" s="68">
+      <c r="AE24" s="68">
         <v>2.0301416221121648E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="13" thickBot="1">
+    <row r="25" spans="1:31" ht="13" thickBot="1">
       <c r="A25" s="53">
         <v>22</v>
       </c>
@@ -21777,30 +21283,19 @@
       <c r="AB25" s="68">
         <v>3.3673859990690509E-2</v>
       </c>
-      <c r="AC25" s="86" t="str">
-        <f>'Tube K'!G23</f>
-        <v>B9</v>
-      </c>
-      <c r="AD25" s="87">
-        <f>'Tube K'!F23</f>
-        <v>1.2022874250000033</v>
-      </c>
-      <c r="AE25" s="68">
-        <v>6.3048941843054429E-2</v>
-      </c>
-      <c r="AF25" s="66" t="str">
+      <c r="AC25" s="66" t="str">
         <f>'Tube L'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AG25" s="87">
+      <c r="AD25" s="87">
         <f>'Tube L'!F23</f>
         <v>1.0702546980000029</v>
       </c>
-      <c r="AH25" s="68">
+      <c r="AE25" s="68">
         <v>3.5724072292373676E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="13" thickTop="1">
+    <row r="26" spans="1:31" ht="13" thickTop="1">
       <c r="B26" s="70"/>
       <c r="C26" s="78" t="s">
         <v>189</v>
@@ -21873,24 +21368,16 @@
         <f>SUM(AB5:AB25)*40/TubeLoading!J38*100</f>
         <v>50.614632599066653</v>
       </c>
-      <c r="AC26" s="70"/>
+      <c r="AC26" s="91"/>
       <c r="AD26" s="78" t="s">
         <v>189</v>
       </c>
       <c r="AE26" s="90">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J39*100</f>
-        <v>43.138336595495552</v>
-      </c>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH26" s="90">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J40*100</f>
+        <f>SUM(AE5:AE25)*40/TubeLoading!J40*100</f>
         <v>58.194511432569072</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:31">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -21901,7 +21388,7 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:31">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -21912,13 +21399,13 @@
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:31">
       <c r="A29" s="59"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:31">
       <c r="A30" s="59"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:31">
       <c r="A31" s="59"/>
     </row>
     <row r="55" spans="1:10">
@@ -21973,18 +21460,17 @@
       <c r="A86" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22848,10 +22334,10 @@
         <v>197</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14">
@@ -23566,7 +23052,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:12">
